--- a/Forms/State forms/Central/Form X register of wages.xlsx
+++ b/Forms/State forms/Central/Form X register of wages.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>FORM X</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>Wage perod fom………………to……………….</t>
-  </si>
-  <si>
     <t>Serial No.</t>
   </si>
   <si>
@@ -92,7 +89,16 @@
     <t>Total deductions</t>
   </si>
   <si>
-    <t>name</t>
+    <t>From:</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>Wage period</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -584,20 +590,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="28.77734375" customWidth="1"/>
     <col min="10" max="10" width="25.21875" customWidth="1"/>
     <col min="11" max="11" width="26.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" customWidth="1"/>
     <col min="17" max="17" width="18.88671875" customWidth="1"/>
     <col min="18" max="18" width="23.5546875" customWidth="1"/>
   </cols>
@@ -690,10 +700,14 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -712,46 +726,46 @@
     </row>
     <row r="6" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -762,31 +776,31 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
